--- a/src/assets/batch_upload_template.xlsx
+++ b/src/assets/batch_upload_template.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsyam00\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\QDXB7TCR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Workbook1.txt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>TYPE</t>
   </si>
@@ -61,18 +66,6 @@
     <t>RUSH</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>BULK_ORDER_UPLOAD_VERSION</t>
   </si>
   <si>
@@ -86,13 +79,139 @@
   </si>
   <si>
     <t>ERROR_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both </t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today's date should default </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the only Order types that should by uploaded </t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiered if order type is transfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type not needed. Comment would be nice </t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>STANDING</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rush</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transfer</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does this populate when we load or are there two version like below? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On report but not upload </t>
+  </si>
+  <si>
+    <t>Optional (Needed only for transfer orders)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,8 +263,98 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,30 +374,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -206,6 +403,123 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -236,18 +550,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -275,6 +702,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -600,358 +1035,1176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43271</v>
+      </c>
+      <c r="J3" s="47">
+        <f ca="1">I3+1</f>
+        <v>43272</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2424</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I7" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J7" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K7" s="4">
+        <v>23213</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2425</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I8" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K8" s="4">
+        <v>32654</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I9" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J9" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K9" s="17">
+        <v>42095</v>
+      </c>
+      <c r="L9" s="15">
+        <v>45</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I10" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J10" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K10" s="17">
+        <v>60078</v>
+      </c>
+      <c r="L10" s="15">
+        <v>50</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H11" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I11" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J11" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K11" s="17">
+        <v>40414</v>
+      </c>
+      <c r="L11" s="15">
+        <v>70</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I12" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J12" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K12" s="17">
+        <v>50173</v>
+      </c>
+      <c r="L12" s="15">
+        <v>30</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I13" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J13" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K13" s="17">
+        <v>40298</v>
+      </c>
+      <c r="L13" s="15">
+        <v>45</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2426</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="20">
+        <v>34234</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2323</v>
+      </c>
+      <c r="H14" s="15">
+        <v>4545</v>
+      </c>
+      <c r="I14" s="16">
+        <v>43405</v>
+      </c>
+      <c r="J14" s="16">
+        <v>43405</v>
+      </c>
+      <c r="K14" s="17">
+        <v>60712</v>
+      </c>
+      <c r="L14" s="15">
+        <v>55</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="4">
+        <v>2427</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I15" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J15" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K15" s="4">
+        <v>51536</v>
+      </c>
+      <c r="L15" s="4">
+        <v>45</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="4">
+        <v>2428</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I16" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J16" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K16" s="4">
+        <v>60977</v>
+      </c>
+      <c r="L16" s="4">
+        <v>45</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="4">
+        <v>2429</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I17" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K17" s="4">
+        <v>70418</v>
+      </c>
+      <c r="L17" s="4">
+        <v>45</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="4">
+        <v>2430</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I18" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K18" s="4">
+        <v>79859</v>
+      </c>
+      <c r="L18" s="4">
+        <v>45</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="4">
+        <v>2431</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I19" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J19" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K19" s="4">
+        <v>89300</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43271</v>
+      </c>
+      <c r="J24" s="47">
+        <f ca="1">I24+1</f>
+        <v>43272</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2424</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I28" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J28" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K28" s="4">
+        <v>23213</v>
+      </c>
+      <c r="L28" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43271</v>
+      </c>
+      <c r="J32" s="47">
+        <f ca="1">I32+1</f>
+        <v>43272</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="53"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="24">
+        <v>2424</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="19">
+        <v>34234</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2323</v>
+      </c>
+      <c r="H36" s="4">
+        <v>4545</v>
+      </c>
+      <c r="I36" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J36" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K36" s="4">
+        <v>23213</v>
+      </c>
+      <c r="L36" s="4">
+        <v>45</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="24">
+        <v>2425</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2424</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="F37" s="19">
         <v>34234</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G37" s="19">
         <v>2323</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H37" s="4">
         <v>4545</v>
       </c>
-      <c r="I3" s="7">
-        <v>43405</v>
-      </c>
-      <c r="J3" s="7">
-        <v>43405</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="I37" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J37" s="8">
+        <v>43405</v>
+      </c>
+      <c r="K37" s="4">
+        <v>32654</v>
+      </c>
+      <c r="L37" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L5" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L7" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L8" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2424</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>34234</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2323</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4545</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43405</v>
-      </c>
-      <c r="J9" s="7">
-        <v>43405</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L10" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L11" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L12" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L13" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9">
-        <v>23213</v>
-      </c>
-      <c r="L14" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:P34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:P5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -968,9 +2221,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
